--- a/va_facility_data_2025-02-20/Fayette County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fayette%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fayette County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fayette%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R088a9817614d433b8be3894118e4a63b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re6baa223e7bf435c83638dc26119588e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1b5ff8bd563d41e1b035c65761a7d5db"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4c4c068e1c784cadbe03ba2d8b4556cc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9b112c0fefc64bda8fb8f4c805df7854"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9e1f33b3e474466599062106d5d6d32e"/>
   </x:sheets>
 </x:workbook>
 </file>
